--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,52</t>
+          <t>13,12; 22,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,57</t>
+          <t>14,69; 23,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,53</t>
+          <t>23,77; 34,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 32,58</t>
+          <t>21,72; 32,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,38; 37,02</t>
+          <t>25,63; 36,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,48; 42,62</t>
+          <t>34,22; 42,89</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,36</t>
+          <t>18,58; 25,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 28,73</t>
+          <t>21,28; 28,71</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 37,09</t>
+          <t>30,3; 36,96</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 17,33</t>
+          <t>10,84; 17,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 30,22</t>
+          <t>21,81; 30,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,57</t>
+          <t>19,36; 26,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 30,92</t>
+          <t>22,38; 31,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,56; 34,77</t>
+          <t>26,78; 34,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,47; 46,36</t>
+          <t>37,51; 46,43</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 41,94</t>
+          <t>33,24; 41,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,25; 42,57</t>
+          <t>34,86; 42,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 24,98</t>
+          <t>19,66; 24,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,92; 37,28</t>
+          <t>31,26; 37,38</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,32; 33,49</t>
+          <t>27,56; 33,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 35,67</t>
+          <t>30,1; 35,79</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,31</t>
+          <t>12,23; 20,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 35,53</t>
+          <t>25,03; 35,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 27,02</t>
+          <t>17,67; 26,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 40,8</t>
+          <t>30,31; 40,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 31,71</t>
+          <t>22,1; 31,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 49,37</t>
+          <t>38,15; 49,54</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,14; 34,71</t>
+          <t>24,36; 34,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 48,03</t>
+          <t>39,05; 48,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 24,86</t>
+          <t>18,33; 24,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,37; 40,91</t>
+          <t>33,13; 41,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,11</t>
+          <t>22,27; 29,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,43; 43,14</t>
+          <t>36,73; 43,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,27</t>
+          <t>14,29; 22,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,06</t>
+          <t>21,08; 28,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,31</t>
+          <t>25,74; 35,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 41,35</t>
+          <t>28,92; 41,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,3</t>
+          <t>27,61; 36,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,06; 47,74</t>
+          <t>39,7; 47,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,18; 49,46</t>
+          <t>39,29; 49,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 49,21</t>
+          <t>37,84; 49,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,25; 28,29</t>
+          <t>22,17; 28,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,71; 36,88</t>
+          <t>31,68; 36,94</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,48; 40,75</t>
+          <t>34,11; 40,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,86; 44,22</t>
+          <t>36,23; 44,67</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 21,25</t>
+          <t>10,82; 20,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 34,78</t>
+          <t>21,93; 34,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 25,28</t>
+          <t>15,29; 25,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 34,9</t>
+          <t>24,55; 35,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,73; 42,51</t>
+          <t>29,02; 42,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,18; 60,19</t>
+          <t>47,33; 60,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,94; 51,53</t>
+          <t>37,99; 51,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,93; 46,61</t>
+          <t>27,74; 46,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 30,47</t>
+          <t>21,33; 30,41</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,04; 45,55</t>
+          <t>35,62; 45,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,43; 36,97</t>
+          <t>27,74; 37,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 40,21</t>
+          <t>29,23; 40,14</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 23,48</t>
+          <t>14,03; 23,71</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,38; 38,62</t>
+          <t>26,91; 38,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 26,73</t>
+          <t>16,41; 26,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,83; 43,47</t>
+          <t>33,34; 43,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 35,0</t>
+          <t>23,96; 35,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,14; 50,02</t>
+          <t>37,45; 49,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,47; 35,81</t>
+          <t>24,7; 36,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,22; 48,87</t>
+          <t>39,57; 49,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,67</t>
+          <t>20,04; 27,62</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,81; 42,21</t>
+          <t>34,07; 42,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,06</t>
+          <t>22,04; 29,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,71; 44,74</t>
+          <t>37,96; 44,55</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,59</t>
+          <t>14,63; 20,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,19; 27,87</t>
+          <t>20,9; 27,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,77</t>
+          <t>18,06; 24,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,08; 39,81</t>
+          <t>30,96; 39,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,61; 31,98</t>
+          <t>24,73; 32,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,18; 41,66</t>
+          <t>34,18; 41,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,51; 33,9</t>
+          <t>26,27; 33,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,63; 69,19</t>
+          <t>43,96; 71,82</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,75; 25,41</t>
+          <t>20,68; 25,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,04</t>
+          <t>28,71; 33,92</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,13</t>
+          <t>23,35; 27,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,45; 58,2</t>
+          <t>39,28; 58,39</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,87</t>
+          <t>17,91; 23,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,16</t>
+          <t>18,32; 24,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,67; 27,95</t>
+          <t>21,82; 27,79</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,95</t>
+          <t>17,98; 24,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,03; 33,68</t>
+          <t>27,08; 33,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,77; 34,46</t>
+          <t>27,99; 34,73</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,05</t>
+          <t>31,78; 38,93</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,92; 38,34</t>
+          <t>32,04; 38,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,52; 28,08</t>
+          <t>23,49; 28,23</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,55</t>
+          <t>24,03; 28,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 32,33</t>
+          <t>27,83; 32,68</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,32; 30,94</t>
+          <t>25,59; 30,73</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,36; 18,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,55; 26,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,58; 24,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,65</t>
+          <t>27,88; 31,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,23; 31,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,29; 41,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,19; 36,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>40,01; 47,87</t>
+          <t>40,08; 48,64</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,68; 24,7</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,72; 33,95</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,97; 30,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,88; 39,55</t>
+          <t>34,9; 40,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,12; 22,14</t>
+          <t>12,43; 21,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,69; 23,29</t>
+          <t>14,32; 23,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,72; 32,71</t>
+          <t>21,57; 32,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,63; 36,69</t>
+          <t>25,19; 36,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,58; 25,46</t>
+          <t>18,18; 25,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,28; 28,71</t>
+          <t>21,53; 28,82</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 17,01</t>
+          <t>10,71; 17,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 30,02</t>
+          <t>22,04; 30,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,36; 26,98</t>
+          <t>19,63; 26,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,78; 34,86</t>
+          <t>26,4; 34,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,51; 46,43</t>
+          <t>36,99; 46,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 41,94</t>
+          <t>33,27; 41,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,66; 24,97</t>
+          <t>19,96; 24,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,26; 37,38</t>
+          <t>31,19; 37,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,56; 33,56</t>
+          <t>27,26; 33,27</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,23; 20,24</t>
+          <t>12,12; 20,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,03; 35,33</t>
+          <t>24,87; 35,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,67; 26,43</t>
+          <t>17,53; 26,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 31,1</t>
+          <t>21,99; 31,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,15; 49,54</t>
+          <t>37,98; 49,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,36; 34,79</t>
+          <t>23,79; 34,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,33; 24,63</t>
+          <t>18,13; 25,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,13; 41,82</t>
+          <t>33,53; 41,11</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,27; 29,16</t>
+          <t>22,33; 29,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,29; 22,09</t>
+          <t>14,41; 22,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 28,23</t>
+          <t>21,23; 28,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,74; 35,16</t>
+          <t>25,73; 35,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,61; 36,87</t>
+          <t>27,07; 36,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>39,7; 47,76</t>
+          <t>40,0; 47,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,29; 49,13</t>
+          <t>39,06; 49,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,17; 28,42</t>
+          <t>22,09; 28,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,68; 36,94</t>
+          <t>31,76; 37,0</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,11; 40,77</t>
+          <t>33,71; 40,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,73</t>
+          <t>11,16; 20,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,93; 34,34</t>
+          <t>21,15; 34,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,29; 25,45</t>
+          <t>14,36; 25,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,02; 42,68</t>
+          <t>29,26; 42,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,33; 60,74</t>
+          <t>47,28; 60,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,99; 51,77</t>
+          <t>38,66; 51,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,33; 30,41</t>
+          <t>21,78; 30,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>35,62; 45,49</t>
+          <t>36,29; 46,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 37,31</t>
+          <t>27,78; 36,95</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,03; 23,71</t>
+          <t>13,65; 22,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>26,91; 38,23</t>
+          <t>27,37; 38,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,41; 26,13</t>
+          <t>16,39; 26,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,96; 35,42</t>
+          <t>23,95; 35,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,45; 49,86</t>
+          <t>38,33; 49,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 36,42</t>
+          <t>24,92; 37,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,04; 27,62</t>
+          <t>20,32; 27,39</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,07; 42,8</t>
+          <t>34,23; 42,71</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,04; 29,99</t>
+          <t>22,23; 30,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,85</t>
+          <t>14,68; 20,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,9; 27,81</t>
+          <t>20,86; 27,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,06; 24,66</t>
+          <t>18,03; 24,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,73; 32,28</t>
+          <t>25,06; 32,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,18; 41,84</t>
+          <t>34,33; 41,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,27; 33,52</t>
+          <t>26,54; 33,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,68; 25,49</t>
+          <t>20,39; 25,27</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,71; 33,92</t>
+          <t>28,56; 34,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,35; 27,9</t>
+          <t>23,08; 28,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,91; 23,7</t>
+          <t>17,89; 23,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,32; 24,41</t>
+          <t>18,0; 24,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,82; 27,79</t>
+          <t>21,99; 27,86</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,08; 33,48</t>
+          <t>26,81; 33,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,99; 34,73</t>
+          <t>27,95; 34,95</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,78; 38,93</t>
+          <t>32,01; 38,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,49; 28,23</t>
+          <t>23,64; 28,01</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,03; 28,51</t>
+          <t>23,98; 28,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27,83; 32,68</t>
+          <t>27,74; 32,56</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,36; 18,89</t>
+          <t>16,06; 18,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,55; 26,78</t>
+          <t>23,74; 26,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,58; 24,4</t>
+          <t>21,55; 24,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,23; 31,32</t>
+          <t>28,02; 31,28</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,29; 41,79</t>
+          <t>38,31; 41,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,19; 36,54</t>
+          <t>33,29; 36,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,68; 24,7</t>
+          <t>22,72; 24,78</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,72; 33,95</t>
+          <t>31,59; 33,9</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,15</t>
+          <t>27,97; 30,13</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,43; 21,84</t>
+          <t>12,65; 21,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,32; 23,66</t>
+          <t>14,29; 23,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,77; 34,45</t>
+          <t>23,5; 33,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 32,45</t>
+          <t>21,18; 32,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,19; 36,68</t>
+          <t>25,38; 37,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,22; 42,89</t>
+          <t>33,48; 42,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,18; 25,18</t>
+          <t>18,38; 25,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,53; 28,82</t>
+          <t>21,57; 28,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,3; 36,96</t>
+          <t>30,47; 37,09</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,71; 17,29</t>
+          <t>10,73; 17,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,04; 30,23</t>
+          <t>21,98; 30,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,63; 26,8</t>
+          <t>19,24; 26,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,38; 31,35</t>
+          <t>22,03; 30,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,4; 34,74</t>
+          <t>26,56; 34,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,99; 46,34</t>
+          <t>37,47; 46,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,27; 41,6</t>
+          <t>33,23; 41,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,86; 42,54</t>
+          <t>35,25; 42,57</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,96; 24,97</t>
+          <t>19,88; 24,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>31,19; 37,56</t>
+          <t>30,92; 37,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,26; 33,27</t>
+          <t>27,32; 33,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,1; 35,79</t>
+          <t>30,23; 35,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,12; 20,29</t>
+          <t>12,35; 20,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,87; 35,14</t>
+          <t>24,95; 35,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 26,27</t>
+          <t>17,97; 27,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,31; 40,17</t>
+          <t>30,36; 40,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,99; 31,31</t>
+          <t>21,95; 31,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,98; 49,15</t>
+          <t>38,4; 49,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,79; 34,51</t>
+          <t>24,14; 34,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,05; 48,37</t>
+          <t>39,16; 48,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,13; 25,05</t>
+          <t>18,19; 24,86</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,53; 41,11</t>
+          <t>33,37; 40,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,33; 29,21</t>
+          <t>22,1; 29,11</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,73; 43,14</t>
+          <t>36,43; 43,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,25</t>
+          <t>14,48; 22,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,23; 28,09</t>
+          <t>20,93; 28,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,73; 35,01</t>
+          <t>25,44; 35,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,92; 41,79</t>
+          <t>28,91; 41,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,07; 36,65</t>
+          <t>27,75; 37,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,0; 47,63</t>
+          <t>40,06; 47,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,06; 49,44</t>
+          <t>39,18; 49,46</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,84; 49,49</t>
+          <t>38,07; 49,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,09; 28,41</t>
+          <t>22,25; 28,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 37,0</t>
+          <t>31,71; 36,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,71; 40,65</t>
+          <t>33,48; 40,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,67</t>
+          <t>35,86; 44,22</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,16; 20,98</t>
+          <t>11,22; 21,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,15; 34,57</t>
+          <t>21,51; 34,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,36; 25,21</t>
+          <t>14,21; 25,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,55; 35,45</t>
+          <t>24,15; 34,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 42,85</t>
+          <t>29,73; 42,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,28; 60,78</t>
+          <t>47,18; 60,19</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>38,66; 51,13</t>
+          <t>37,94; 51,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,74; 46,28</t>
+          <t>27,93; 46,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 30,34</t>
+          <t>21,78; 30,47</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,29; 46,4</t>
+          <t>36,04; 45,55</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>27,78; 36,95</t>
+          <t>28,43; 36,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,23; 40,14</t>
+          <t>29,26; 40,21</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,65; 22,94</t>
+          <t>14,2; 23,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,37; 38,3</t>
+          <t>27,38; 38,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,39; 26,19</t>
+          <t>16,43; 26,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,34; 43,64</t>
+          <t>32,83; 43,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,95; 35,02</t>
+          <t>24,15; 35,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,33; 49,66</t>
+          <t>38,14; 50,02</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,92; 37,19</t>
+          <t>24,47; 35,81</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,57; 49,12</t>
+          <t>39,22; 48,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,32; 27,39</t>
+          <t>20,05; 27,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>34,23; 42,71</t>
+          <t>33,81; 42,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,13</t>
+          <t>22,23; 30,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,96; 44,55</t>
+          <t>37,71; 44,74</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,68; 20,76</t>
+          <t>14,41; 20,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,86; 27,63</t>
+          <t>21,19; 27,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,67</t>
+          <t>17,99; 24,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,96; 39,77</t>
+          <t>31,08; 39,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,18</t>
+          <t>24,61; 31,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,33; 41,85</t>
+          <t>34,18; 41,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,54; 33,52</t>
+          <t>26,51; 33,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,96; 71,82</t>
+          <t>43,63; 69,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,39; 25,27</t>
+          <t>20,75; 25,41</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,56; 34,01</t>
+          <t>28,89; 34,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,08; 28,25</t>
+          <t>23,29; 28,13</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,28; 58,39</t>
+          <t>39,45; 58,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,67</t>
+          <t>17,95; 23,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>18,0; 24,42</t>
+          <t>17,95; 24,16</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,99; 27,86</t>
+          <t>21,67; 27,95</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,98; 24,98</t>
+          <t>17,21; 24,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,81; 33,54</t>
+          <t>27,03; 33,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,95; 34,95</t>
+          <t>27,77; 34,46</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>32,01; 38,98</t>
+          <t>31,99; 39,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,04; 38,31</t>
+          <t>31,92; 38,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,64; 28,01</t>
+          <t>23,52; 28,08</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>23,98; 28,45</t>
+          <t>24,22; 28,55</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27,74; 32,56</t>
+          <t>27,87; 32,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,59; 30,73</t>
+          <t>25,32; 30,94</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,06; 18,9</t>
+          <t>16,23; 18,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,74; 26,76</t>
+          <t>23,61; 26,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,55; 24,43</t>
+          <t>21,54; 24,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,88; 31,5</t>
+          <t>27,98; 31,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,02; 31,28</t>
+          <t>28,31; 31,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,31; 41,72</t>
+          <t>38,48; 41,68</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,29; 36,56</t>
+          <t>33,21; 36,56</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>40,08; 48,64</t>
+          <t>40,01; 47,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,72; 24,78</t>
+          <t>22,64; 24,8</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,59; 33,9</t>
+          <t>31,65; 33,87</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,97; 30,13</t>
+          <t>27,94; 30,08</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,9; 40,3</t>
+          <t>34,88; 39,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,46%</t>
+          <t>26,48%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38,5%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>33,59%</t>
+          <t>31,81%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,47; 30,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,53</t>
+          <t>21,47; 31,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,32; 47,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,48; 42,62</t>
+          <t>32,16; 41,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,57; 37,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>30,47; 37,09</t>
+          <t>28,48; 35,35</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26,43%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>38,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>31,95%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,03; 30,92</t>
+          <t>21,01; 29,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>35,25; 42,57</t>
+          <t>34,97; 42,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>30,23; 35,67</t>
+          <t>29,3; 34,89</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>39,85%</t>
+          <t>39,23%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 40,8</t>
+          <t>29,63; 40,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>39,16; 48,03</t>
+          <t>38,84; 47,77</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,43; 43,14</t>
+          <t>35,92; 42,55</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,65%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>34,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,01%</t>
+          <t>36,54%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,2%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>35,7%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,06</t>
+          <t>19,96; 29,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,91; 41,35</t>
+          <t>28,17; 40,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,06; 47,74</t>
+          <t>40,31; 50,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 49,21</t>
+          <t>20,26; 45,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,71; 36,88</t>
+          <t>31,84; 38,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>35,86; 44,22</t>
+          <t>26,3; 41,1</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>36,4%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>35,63%</t>
+          <t>33,66%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,15; 34,9</t>
+          <t>24,19; 34,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>27,93; 46,61</t>
+          <t>20,78; 46,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 40,21</t>
+          <t>23,29; 39,62</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>38,0%</t>
+          <t>37,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>44,37%</t>
+          <t>44,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>41,18%</t>
+          <t>40,84%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,83; 43,47</t>
+          <t>32,37; 43,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,22; 48,87</t>
+          <t>39,12; 48,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,71; 44,74</t>
+          <t>37,35; 44,37</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,48%</t>
+          <t>34,74%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>52,4%</t>
+          <t>57,81%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>44,98%</t>
+          <t>48,03%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>31,08; 39,81</t>
+          <t>30,22; 39,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,63; 69,19</t>
+          <t>43,34; 79,01</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,45; 58,2</t>
+          <t>38,7; 66,95</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>17,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>35,09%</t>
+          <t>35,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>25,16%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,21; 24,95</t>
+          <t>7,78; 24,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>31,92; 38,34</t>
+          <t>32,34; 38,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,32; 30,94</t>
+          <t>14,98; 30,4</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>27,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>42,34%</t>
+          <t>42,74%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>36,5%</t>
+          <t>35,53%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,65</t>
+          <t>21,41; 30,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>40,01; 47,87</t>
+          <t>38,53; 52,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,88; 39,55</t>
+          <t>31,99; 40,93</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,65; 21,52</t>
+          <t>12,89; 21,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>19,47; 30,5</t>
+          <t>18,97; 30,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,29; 23,57</t>
+          <t>14,5; 24,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,47; 31,43</t>
+          <t>21,58; 32,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,18; 32,58</t>
+          <t>21,5; 32,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>35,32; 47,47</t>
+          <t>35,14; 47,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,38; 37,02</t>
+          <t>25,09; 36,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,16; 41,71</t>
+          <t>32,98; 42,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,38; 25,36</t>
+          <t>18,34; 25,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,57; 37,19</t>
+          <t>28,73; 37,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>21,57; 28,73</t>
+          <t>21,51; 28,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>28,48; 35,35</t>
+          <t>28,21; 35,37</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>10,73; 17,33</t>
+          <t>10,92; 17,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>21,98; 30,22</t>
+          <t>22,09; 30,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,24; 26,57</t>
+          <t>19,32; 27,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,01; 29,87</t>
+          <t>21,41; 29,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,56; 34,77</t>
+          <t>26,83; 34,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,47; 46,36</t>
+          <t>37,51; 45,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>33,23; 41,94</t>
+          <t>33,57; 42,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,97; 42,36</t>
+          <t>34,64; 42,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 24,98</t>
+          <t>19,96; 25,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>30,92; 37,28</t>
+          <t>30,77; 37,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,32; 33,49</t>
+          <t>27,28; 32,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>29,3; 34,89</t>
+          <t>28,93; 35,11</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 20,31</t>
+          <t>12,34; 20,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,95; 35,53</t>
+          <t>24,65; 35,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 27,02</t>
+          <t>17,41; 26,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>29,63; 40,1</t>
+          <t>29,51; 39,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,95; 31,71</t>
+          <t>21,6; 31,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>38,4; 49,37</t>
+          <t>38,11; 49,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,14; 34,71</t>
+          <t>23,72; 33,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>38,84; 47,77</t>
+          <t>38,82; 47,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,19; 24,86</t>
+          <t>18,44; 24,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>33,37; 40,91</t>
+          <t>33,21; 40,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 29,11</t>
+          <t>22,34; 28,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>35,92; 42,55</t>
+          <t>35,9; 42,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,48; 22,27</t>
+          <t>14,11; 22,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,96; 29,28</t>
+          <t>20,3; 29,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,44; 35,31</t>
+          <t>25,34; 35,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,17; 40,87</t>
+          <t>28,31; 41,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,3</t>
+          <t>27,76; 36,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,31; 50,37</t>
+          <t>40,46; 50,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,18; 49,46</t>
+          <t>38,88; 49,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,26; 45,91</t>
+          <t>21,18; 46,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,25; 28,29</t>
+          <t>21,94; 27,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>31,84; 38,7</t>
+          <t>31,59; 39,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,48; 40,75</t>
+          <t>33,58; 40,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,3; 41,1</t>
+          <t>26,3; 41,43</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 21,25</t>
+          <t>11,32; 21,64</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,51; 34,78</t>
+          <t>21,77; 34,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,21; 25,28</t>
+          <t>14,66; 25,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,19; 34,83</t>
+          <t>24,97; 36,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,73; 42,51</t>
+          <t>29,28; 43,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>47,18; 60,19</t>
+          <t>46,52; 59,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>37,94; 51,53</t>
+          <t>37,93; 50,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 46,52</t>
+          <t>19,2; 46,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 30,47</t>
+          <t>21,76; 31,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,04; 45,55</t>
+          <t>36,19; 45,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,43; 36,97</t>
+          <t>28,22; 36,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>23,29; 39,62</t>
+          <t>22,06; 38,97</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,2; 23,48</t>
+          <t>13,93; 22,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>27,38; 38,62</t>
+          <t>26,78; 37,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,43; 26,73</t>
+          <t>15,98; 25,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>32,37; 43,02</t>
+          <t>32,43; 43,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>24,15; 35,0</t>
+          <t>24,64; 35,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,14; 50,02</t>
+          <t>37,3; 49,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>24,47; 35,81</t>
+          <t>24,8; 36,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,12; 48,79</t>
+          <t>39,81; 49,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,05; 27,67</t>
+          <t>20,49; 27,44</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>33,81; 42,21</t>
+          <t>33,78; 42,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>22,23; 30,06</t>
+          <t>22,15; 29,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>37,35; 44,37</t>
+          <t>37,32; 44,21</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,41; 20,59</t>
+          <t>14,59; 20,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,19; 27,87</t>
+          <t>21,03; 27,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,77</t>
+          <t>17,97; 24,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>30,22; 39,15</t>
+          <t>30,37; 39,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>24,61; 31,98</t>
+          <t>24,88; 32,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>34,18; 41,66</t>
+          <t>34,26; 41,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,51; 33,9</t>
+          <t>26,49; 33,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>43,34; 79,01</t>
+          <t>43,29; 77,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,75; 25,41</t>
+          <t>20,68; 25,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,89; 34,04</t>
+          <t>28,67; 34,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,29; 28,13</t>
+          <t>23,52; 28,26</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>38,7; 66,95</t>
+          <t>38,79; 68,25</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 23,87</t>
+          <t>17,98; 23,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>17,95; 24,16</t>
+          <t>18,5; 24,6</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,67; 27,95</t>
+          <t>21,65; 28,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,78; 24,0</t>
+          <t>7,82; 24,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,03; 33,68</t>
+          <t>27,07; 34,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,77; 34,46</t>
+          <t>27,93; 34,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,99; 39,05</t>
+          <t>31,62; 39,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,34; 38,59</t>
+          <t>32,35; 38,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>23,52; 28,08</t>
+          <t>23,44; 27,88</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>24,22; 28,55</t>
+          <t>24,23; 28,8</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>27,87; 32,33</t>
+          <t>28,08; 32,75</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>14,98; 30,4</t>
+          <t>15,69; 30,17</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,23; 18,73</t>
+          <t>16,13; 18,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,61; 26,69</t>
+          <t>23,8; 26,85</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>21,54; 24,42</t>
+          <t>21,53; 24,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,56</t>
+          <t>22,24; 30,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,31; 31,58</t>
+          <t>28,15; 31,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,48; 41,68</t>
+          <t>38,38; 41,67</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>33,21; 36,56</t>
+          <t>33,07; 36,39</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>38,53; 52,07</t>
+          <t>38,68; 54,3</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,64; 24,8</t>
+          <t>22,7; 24,77</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>31,65; 33,87</t>
+          <t>31,64; 34,01</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>27,94; 30,08</t>
+          <t>27,92; 30,15</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>31,99; 40,93</t>
+          <t>32,06; 41,87</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido dos o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>46405</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>72944</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>54695</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82468</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>70177</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>118980</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89703</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>108718</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>116582</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>191924</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>144398</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>191186</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>35191; 58753</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>55904; 88471</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>42587; 70737</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>67208; 100104</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>56068; 85573</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>100937; 137295</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>72426; 105336</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>95526; 122494</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97887; 137523</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>167192; 215561</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>125307; 168559</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>169591; 212614</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>67958</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>131038</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>115445</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>131166</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>154593</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>218291</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>195528</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>198962</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>222551</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>349329</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>310972</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>330128</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>53837; 84359</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>111687; 154952</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>97084; 135960</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>110977; 154879</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>135191; 176056</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>196487; 239969</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>175596; 219715</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>178365; 217891</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>198980; 250769</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>316741; 382732</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>279846; 337857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>298999; 362841</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50841</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>96621</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>69182</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>109560</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>88830</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>148921</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>97683</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>151412</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>139671</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>245542</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>166865</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>260972</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39340; 65060</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>79888; 113510</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55459; 83921</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>93251; 126000</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>72449; 104038</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>129977; 167998</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79777; 113826</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>135515; 165815</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>120633; 162969</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>220855; 270115</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>146325; 187939</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>238773; 285019</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>64609</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>91863</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111083</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>107585</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>118406</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>176228</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>171174</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>173824</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>183015</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>268091</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>282258</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>281409</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>50624; 79115</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75906; 111400</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>93764; 129518</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>88473; 128583</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>103127; 137091</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>157356; 197586</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>150593; 192482</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100755; 219506</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>160206; 204179</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>241005; 297842</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>254250; 308515</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>207342; 326607</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>31488</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58443</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41482</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>53069</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74517</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>117994</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>97476</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>94188</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>106005</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>176436</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>138958</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>147257</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>23010; 43999</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>46279; 73383</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>30959; 53499</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>44631; 64596</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>60806; 89762</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>102153; 131423</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>82903; 110421</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>49688; 119712</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>89444; 127549</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>156400; 197955</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>121302; 157356</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>96539; 170509</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>49012</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>88796</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>54977</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>101237</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>81650</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>122965</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>82970</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>113839</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>130662</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>211762</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>137946</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>215077</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>37711; 61082</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>73380; 103360</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>42041; 67569</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>87456; 116019</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>68537; 99096</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>104462; 139956</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>67735; 100800</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>102344; 127401</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>112461; 150644</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>187162; 234816</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>118788; 160372</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>196564; 232849</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>682</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>107265</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>161232</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>139529</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>216851</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>181143</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>262926</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>206668</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>490951</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>288408</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>424158</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>346197</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>707801</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>89735; 127842</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>139410; 185343</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>117996; 162959</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>189580; 245546</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>158760; 207556</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>237724; 291103</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>183120; 232030</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>367636; 656232</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>259116; 319157</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>388981; 461223</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>317074; 380895</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>571654; 1005621</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>154523</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>164625</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>192574</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>159395</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>237198</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>257173</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>292635</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>254775</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>391720</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>421798</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>485208</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>414170</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>133727; 177007</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>144127; 191620</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>168549; 219665</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>72591; 225377</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>212099; 266391</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>230091; 284950</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>261208; 322265</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>232157; 277214</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>357950; 425788</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>388325; 461686</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>450554; 525623</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>258399; 496790</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>584</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>786</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1207</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1317</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2479</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1562</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2103</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>1870</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3686</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>572101</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>865562</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>778966</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>961331</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1006514</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1423478</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1233836</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1586668</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1578614</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2289040</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2012802</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2547999</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>528509; 612482</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>815615; 920105</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>730904; 829383</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>769346; 1057510</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>951145; 1064005</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1365655; 1482575</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1172285; 1289757</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1435776; 2015906</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1510894; 1648760</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2210371; 2375709</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>1937437; 2091778</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>2299674; 3002654</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>